--- a/data/trans_dic/P16A15-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P16A15-Clase-trans_dic.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas (tasa de respuesta: 99,92%)</t>
+          <t>Población que ha consumido medicamentos para bajar el colesterol en las dos últimas semanas (tasa de respuesta: 99,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1665,7 +1665,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas (tasa de respuesta: 99,92%)</t>
+          <t>Población que ha consumido medicamentos para bajar el colesterol en las dos últimas semanas (tasa de respuesta: 99,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P16A15-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P16A15-Clase-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.03734975381946785</v>
+        <v>0.03817573922951891</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.06150987295784729</v>
+        <v>0.06452357939971262</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.06125626438740426</v>
+        <v>0.05988732475135129</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.09586394471196411</v>
+        <v>0.09363475432305933</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.02574800485388586</v>
+        <v>0.02399707162195373</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.03241768723120409</v>
+        <v>0.0343519283169452</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.0234693551326087</v>
+        <v>0.02319592476268458</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.08150585408674788</v>
+        <v>0.08311956735330368</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.03863156519940715</v>
+        <v>0.03750058088364679</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.05797074805119216</v>
+        <v>0.0556331066085869</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.04982169322461912</v>
+        <v>0.04794442627061491</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.09586384120431163</v>
+        <v>0.09602953158683884</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.07993012855496562</v>
+        <v>0.08501743624200342</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1240073148344972</v>
+        <v>0.1257301092326277</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1161532507421468</v>
+        <v>0.116963854725768</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1469215993824479</v>
+        <v>0.1463664938531575</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.07489602853428047</v>
+        <v>0.07356948082380234</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.08747818313784922</v>
+        <v>0.08940861771182346</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.07160551081634482</v>
+        <v>0.075485538858689</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1279923355025215</v>
+        <v>0.1299688380449125</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.07069536327969624</v>
+        <v>0.07066392812677071</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.09941920529468838</v>
+        <v>0.09867641549326713</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.08830283810572116</v>
+        <v>0.08816930840814348</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1286016077691104</v>
+        <v>0.1291730236268618</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.06301855550810671</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.09147982907290127</v>
+        <v>0.09147982907290128</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.04200528256385485</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.03345349121672482</v>
+        <v>0.03472958716989135</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.06485501840947439</v>
+        <v>0.06549731308577715</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.05655191645042477</v>
+        <v>0.05676966043048616</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1063125622048926</v>
+        <v>0.1121455395975668</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01608704495168148</v>
+        <v>0.01575900964516872</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.04153758582072864</v>
+        <v>0.03953601498751368</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.03840319607847788</v>
+        <v>0.04004801094462825</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.07116229632795387</v>
+        <v>0.07133561658445177</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.02901852728718632</v>
+        <v>0.02893194168867319</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.06058390630088987</v>
+        <v>0.06075256913916975</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.05485453462586203</v>
+        <v>0.05604236354486678</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.09934748521855688</v>
+        <v>0.09911392643638678</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.0845799669266699</v>
+        <v>0.08270280762419717</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1271854633545156</v>
+        <v>0.1250604689357533</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1141874669436389</v>
+        <v>0.112643252418712</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1693203422299983</v>
+        <v>0.1711003142785212</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.05221870402944496</v>
+        <v>0.05243925309499189</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.09998546662630224</v>
+        <v>0.09995160133202176</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.09579148624782909</v>
+        <v>0.09449060466315323</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1136336215760355</v>
+        <v>0.1167523586031031</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.05904804827479552</v>
+        <v>0.05839553506552946</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1036502674788364</v>
+        <v>0.1061346539630181</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.0943228617346291</v>
+        <v>0.09730873983211299</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.134698607729126</v>
+        <v>0.1374995658458618</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.03804999279044827</v>
+        <v>0.03819776890751409</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.09418796257171425</v>
+        <v>0.09198736063110355</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.08890557013241449</v>
+        <v>0.08980270400075613</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1157496077868218</v>
+        <v>0.1155441565324962</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.03528536876945099</v>
+        <v>0.03302535085202026</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.04896563413737187</v>
+        <v>0.05212220576580521</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.07850733490775508</v>
+        <v>0.07920072581442464</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1220723451762328</v>
+        <v>0.126869655935989</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.04236338970788466</v>
+        <v>0.04301743526671865</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.08567731888502519</v>
+        <v>0.08610459392240553</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.09367414554627937</v>
+        <v>0.09173566055260472</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.125158824288557</v>
+        <v>0.126698713120754</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.07722715263150924</v>
+        <v>0.07743449128227099</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1473961199312903</v>
+        <v>0.1485078898727758</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1461210478403648</v>
+        <v>0.1445598597305964</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1770763389670567</v>
+        <v>0.1760143445721219</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1093655309079998</v>
+        <v>0.1119400890050595</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1214740083520899</v>
+        <v>0.1205367505677214</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1909374560842731</v>
+        <v>0.1994205722450379</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2039417237087247</v>
+        <v>0.2088534783318664</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.07851571180570149</v>
+        <v>0.07782757993662315</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1300552412578252</v>
+        <v>0.1320809287432715</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1443879100157486</v>
+        <v>0.1441454138962386</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1734004828337108</v>
+        <v>0.1761911790226108</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.08801696144262451</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.1233605740480554</v>
+        <v>0.1233605740480555</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.0612479551342676</v>
+        <v>0.06148443184050156</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1022187803594111</v>
+        <v>0.1005039450542167</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.08619611932209333</v>
+        <v>0.0864357810734787</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1193591625953694</v>
+        <v>0.1181437092504342</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.04275105570638314</v>
+        <v>0.04284980459683917</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.06114344211367399</v>
+        <v>0.06258703110378426</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.05117874569654594</v>
+        <v>0.05056981714294662</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.09188279374357353</v>
+        <v>0.09259163605501605</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.05791450665838288</v>
+        <v>0.0588645105777164</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.08851020639409538</v>
+        <v>0.09042098977916001</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.07519193981593571</v>
+        <v>0.07500231677177936</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1104898056190868</v>
+        <v>0.1116448625176891</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.09068849708455151</v>
+        <v>0.08982887083134398</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.144288927427163</v>
+        <v>0.1422015240764785</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.123069337741109</v>
+        <v>0.1216078878166829</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1543409129418401</v>
+        <v>0.1556985289279551</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.07834297407644882</v>
+        <v>0.07644628092833368</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1037469469333058</v>
+        <v>0.1035645143184088</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.08628516956811404</v>
+        <v>0.08593782590661049</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1240564069649092</v>
+        <v>0.1236811792954403</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.08068595052087972</v>
+        <v>0.08175700265318225</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1175218996748515</v>
+        <v>0.1198279936899076</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1002312465101762</v>
+        <v>0.1013570846051106</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1368384913883305</v>
+        <v>0.1372003243542045</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.1348221806331652</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.1915932737362015</v>
+        <v>0.1915932737362014</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.06626533464330557</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.02937526063106271</v>
+        <v>0.02865785101404153</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.08744390070467421</v>
+        <v>0.08845075495447145</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.09102740801389821</v>
+        <v>0.09255655764306664</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.08443497112112419</v>
+        <v>0.08498780976136826</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.05812251848625702</v>
+        <v>0.05884531992887729</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1251383518357151</v>
+        <v>0.1264603357542664</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1102132816613996</v>
+        <v>0.1089858780165614</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1709993314729358</v>
+        <v>0.1713469568566523</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.05056975220724465</v>
+        <v>0.05164324105858539</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1198158228279997</v>
+        <v>0.1186990053330496</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1076936664898998</v>
+        <v>0.106918753023997</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1415367773784129</v>
+        <v>0.1417764605783629</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.07027641232640042</v>
+        <v>0.07118540443324052</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.142551671468701</v>
+        <v>0.1489068535424637</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1396886137330428</v>
+        <v>0.1414291410208202</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1321480655547723</v>
+        <v>0.1353504493694239</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.105027201298693</v>
+        <v>0.1032055621808208</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1811813469837422</v>
+        <v>0.1812214385990248</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1613947670827159</v>
+        <v>0.1599547168316236</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.213346501919978</v>
+        <v>0.212028152093197</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.0855689605411085</v>
+        <v>0.08456965535230573</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1600092093599124</v>
+        <v>0.1573728113438561</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1438736962673611</v>
+        <v>0.1449288470416656</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1729954716458794</v>
+        <v>0.174672975279043</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.160464714158326</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.1676547597233674</v>
+        <v>0.1676547597233673</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.0952735837158461</v>
@@ -1388,7 +1388,7 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.002943418146054948</v>
+        <v>0.00292081550258636</v>
       </c>
       <c r="D20" s="5" t="n">
         <v>0</v>
@@ -1397,31 +1397,31 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.00543845061182914</v>
+        <v>0.005615313678609837</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.09839261825225455</v>
+        <v>0.09811122637154508</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.1576745857393724</v>
+        <v>0.1563328934517616</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.1354742646564507</v>
+        <v>0.1375637638843702</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1470121005859197</v>
+        <v>0.1478047811398081</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.08202285463516394</v>
+        <v>0.07925518594918947</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.1285238860113112</v>
+        <v>0.1276800232443072</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.1110040782454167</v>
+        <v>0.1119515736999062</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.1173431796492198</v>
+        <v>0.1190187193239211</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.02900062235503407</v>
+        <v>0.0271237146647973</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.04138699555589608</v>
+        <v>0.03962443241176438</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.02570847168107911</v>
+        <v>0.02965245393570711</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.0343349814634246</v>
+        <v>0.0328259245327956</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1359567968158932</v>
+        <v>0.1341884258311612</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.2040846649499685</v>
+        <v>0.2057809358279974</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1846815950498828</v>
+        <v>0.1858582076418172</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1904820630209092</v>
+        <v>0.1889373742639776</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.1107756168983843</v>
+        <v>0.1104766656933778</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.1658289656535397</v>
+        <v>0.1659314047313886</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.1470424754312175</v>
+        <v>0.1489200360897174</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.151174293010499</v>
+        <v>0.1526674452130264</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.05084085238219116</v>
+        <v>0.05010440837489399</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.09205015191511184</v>
+        <v>0.09225161226306731</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.08433775760560326</v>
+        <v>0.08365280220721495</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1110278708502806</v>
+        <v>0.1117804872722674</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.06964290212546706</v>
+        <v>0.07024732910722206</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.1121700003329853</v>
+        <v>0.1123632916523339</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.09958528876662341</v>
+        <v>0.09905172788450159</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1324871786467368</v>
+        <v>0.1316377860031435</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.06256782169273066</v>
+        <v>0.06290015659349597</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.1051115970713307</v>
+        <v>0.1054087083457187</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.09445900815482036</v>
+        <v>0.09481956515304647</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.124670427621151</v>
+        <v>0.1253639370140671</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.06585404635149401</v>
+        <v>0.06619099396249148</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1139020390039372</v>
+        <v>0.113869580838327</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.104229803119913</v>
+        <v>0.1039870073909787</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1312891874592232</v>
+        <v>0.1320264610253851</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.08887276713159381</v>
+        <v>0.08853737867683042</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1345470117259869</v>
+        <v>0.1362281373999496</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.1213690488784989</v>
+        <v>0.1204608099263007</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1504093790600475</v>
+        <v>0.1504549135575262</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.07434020623402</v>
+        <v>0.07488951062478819</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.1215110833288126</v>
+        <v>0.1213261531723907</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.1092133533393458</v>
+        <v>0.1095903370206133</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.138814935602652</v>
+        <v>0.139546337763233</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>17695</v>
+        <v>18087</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>26843</v>
+        <v>28158</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>26285</v>
+        <v>25697</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>52784</v>
+        <v>51557</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>7896</v>
+        <v>7359</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>10194</v>
+        <v>10802</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>8145</v>
+        <v>8050</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>39808</v>
+        <v>40597</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>30150</v>
+        <v>29268</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>43527</v>
+        <v>41772</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>38669</v>
+        <v>37212</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>99605</v>
+        <v>99777</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>37869</v>
+        <v>40279</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>54117</v>
+        <v>54868</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>49840</v>
+        <v>50188</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>80898</v>
+        <v>80592</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>22969</v>
+        <v>22562</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>27508</v>
+        <v>28115</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>24851</v>
+        <v>26198</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>62513</v>
+        <v>63478</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>55175</v>
+        <v>55150</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>74649</v>
+        <v>74091</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>68536</v>
+        <v>68432</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>133621</v>
+        <v>134215</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>12275</v>
+        <v>12743</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>27046</v>
+        <v>27314</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>21333</v>
+        <v>21415</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>51372</v>
+        <v>54190</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>5982</v>
+        <v>5860</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>13928</v>
+        <v>13257</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>14296</v>
+        <v>14909</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>30112</v>
+        <v>30185</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>21439</v>
+        <v>21375</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>45579</v>
+        <v>45706</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>41113</v>
+        <v>42004</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>90044</v>
+        <v>89832</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>31035</v>
+        <v>30346</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>53039</v>
+        <v>52152</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>43075</v>
+        <v>42492</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>81818</v>
+        <v>82678</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>19418</v>
+        <v>19500</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>33527</v>
+        <v>33515</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>35661</v>
+        <v>35176</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>48083</v>
+        <v>49403</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>43625</v>
+        <v>43143</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>77980</v>
+        <v>79849</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>70695</v>
+        <v>72933</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>122085</v>
+        <v>124623</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>20638</v>
+        <v>20718</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>59181</v>
+        <v>57798</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>46401</v>
+        <v>46869</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>54589</v>
+        <v>54492</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>5920</v>
+        <v>5541</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>12630</v>
+        <v>13444</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>13042</v>
+        <v>13157</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>22888</v>
+        <v>23788</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>30085</v>
+        <v>30550</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>75933</v>
+        <v>76312</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>64451</v>
+        <v>63117</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>82493</v>
+        <v>83508</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>41887</v>
+        <v>42000</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>92613</v>
+        <v>93312</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>76263</v>
+        <v>75448</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>83511</v>
+        <v>83010</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>18350</v>
+        <v>18782</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>31333</v>
+        <v>31091</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>31719</v>
+        <v>33128</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>38238</v>
+        <v>39159</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>55760</v>
+        <v>55271</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>115264</v>
+        <v>117059</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>99344</v>
+        <v>99177</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>114290</v>
+        <v>116129</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>75845</v>
+        <v>76138</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>118383</v>
+        <v>116397</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>99094</v>
+        <v>99370</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>135096</v>
+        <v>133720</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>30536</v>
+        <v>30607</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>46876</v>
+        <v>47983</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>42267</v>
+        <v>41764</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>79076</v>
+        <v>79686</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>113085</v>
+        <v>114940</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>170363</v>
+        <v>174041</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>148543</v>
+        <v>148168</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>220146</v>
+        <v>222448</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>112303</v>
+        <v>111238</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>167105</v>
+        <v>164688</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>141485</v>
+        <v>139805</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>174690</v>
+        <v>176226</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>55959</v>
+        <v>54604</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>79538</v>
+        <v>79398</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>71261</v>
+        <v>70974</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>106765</v>
+        <v>106442</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>157549</v>
+        <v>159640</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>226205</v>
+        <v>230643</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>198008</v>
+        <v>200232</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>272645</v>
+        <v>273366</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>10268</v>
+        <v>10017</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>44649</v>
+        <v>45163</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>56501</v>
+        <v>57450</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>47873</v>
+        <v>48186</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>33057</v>
+        <v>33468</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>94883</v>
+        <v>95885</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>81364</v>
+        <v>80458</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>141951</v>
+        <v>142240</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>46438</v>
+        <v>47423</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>152025</v>
+        <v>150608</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>146350</v>
+        <v>145297</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>197741</v>
+        <v>198076</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>24564</v>
+        <v>24882</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>72786</v>
+        <v>76031</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>86706</v>
+        <v>87786</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>74925</v>
+        <v>76740</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>59734</v>
+        <v>58698</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>137376</v>
+        <v>137406</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>119149</v>
+        <v>118086</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>177105</v>
+        <v>176010</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>78577</v>
+        <v>77659</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>203023</v>
+        <v>199678</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>195517</v>
+        <v>196951</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>241692</v>
+        <v>244036</v>
       </c>
     </row>
     <row r="24">
@@ -2774,7 +2774,7 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>878</v>
+        <v>871</v>
       </c>
       <c r="D26" s="6" t="n">
         <v>0</v>
@@ -2783,31 +2783,31 @@
         <v>0</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>1290</v>
+        <v>1332</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>122869</v>
+        <v>122517</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>174435</v>
+        <v>172951</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>146587</v>
+        <v>148847</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>123930</v>
+        <v>124598</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>126886</v>
+        <v>122605</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>176353</v>
+        <v>175195</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>151983</v>
+        <v>153281</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>126757</v>
+        <v>128567</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>8648</v>
+        <v>8088</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>11002</v>
+        <v>10534</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>7382</v>
+        <v>8515</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>8145</v>
+        <v>7787</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>169777</v>
+        <v>167569</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>225779</v>
+        <v>227655</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>199830</v>
+        <v>201103</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>160575</v>
+        <v>159273</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>171365</v>
+        <v>170903</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>227541</v>
+        <v>227681</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>201326</v>
+        <v>203897</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>163302</v>
+        <v>164915</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>166207</v>
+        <v>163800</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>314472</v>
+        <v>315160</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>285544</v>
+        <v>283225</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>382101</v>
+        <v>384691</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>235262</v>
+        <v>237304</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>396957</v>
+        <v>397641</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>351695</v>
+        <v>349811</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>481298</v>
+        <v>478212</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>415907</v>
+        <v>418116</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>731072</v>
+        <v>733139</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>653403</v>
+        <v>655897</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>881953</v>
+        <v>886859</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>215288</v>
+        <v>216390</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>389125</v>
+        <v>389014</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>352893</v>
+        <v>352071</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>451830</v>
+        <v>454367</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>300223</v>
+        <v>299090</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>476147</v>
+        <v>482096</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>428626</v>
+        <v>425419</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>546405</v>
+        <v>546571</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>494161</v>
+        <v>497813</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>845134</v>
+        <v>843848</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>755463</v>
+        <v>758071</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>982015</v>
+        <v>987189</v>
       </c>
     </row>
     <row r="32">
